--- a/重要参数.xlsx
+++ b/重要参数.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_program\finite_element\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Matlab_program\finite_element\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B107331-AF12-4BEF-A5C0-F0F085B4D9E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{195F3ACD-C78B-4AF1-8F99-77F74F9EE425}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17088" windowHeight="9828" activeTab="5" xr2:uid="{CA9778CD-4888-48FA-9F6E-4D1AF81288AF}"/>
   </bookViews>
